--- a/build/lib/co2mpas_driver/new.xlsx
+++ b/build/lib/co2mpas_driver/new.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apps\new_MFC\co2mpas_driver\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -130,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +199,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -240,7 +253,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +285,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +320,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,14 +496,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="T161" sqref="T161"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,7 +564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1324</v>
       </c>
@@ -564,13 +581,13 @@
         <v>1.86</v>
       </c>
       <c r="F2">
-        <v>1.455</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="G2">
         <v>1557.625</v>
       </c>
       <c r="H2">
-        <v>3.159</v>
+        <v>3.1589999999999998</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -579,7 +596,7 @@
         <v>29</v>
       </c>
       <c r="K2">
-        <v>333.3009709</v>
+        <v>333.30097089999998</v>
       </c>
       <c r="L2">
         <v>420</v>
@@ -603,7 +620,7 @@
         <v>320.86</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1431</v>
       </c>
@@ -617,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1.815</v>
+        <v>1.8149999999999999</v>
       </c>
       <c r="F3">
         <v>1.43</v>
@@ -635,7 +652,7 @@
         <v>29</v>
       </c>
       <c r="K3">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L3">
         <v>310</v>
@@ -656,10 +673,10 @@
         <v>34</v>
       </c>
       <c r="T3">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1835</v>
       </c>
@@ -676,7 +693,7 @@
         <v>1.86</v>
       </c>
       <c r="F4">
-        <v>1.493</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="G4">
         <v>1487.75</v>
@@ -691,13 +708,13 @@
         <v>30</v>
       </c>
       <c r="K4">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L4">
         <v>420</v>
       </c>
       <c r="M4">
-        <v>93.15000000000001</v>
+        <v>93.15</v>
       </c>
       <c r="N4">
         <v>158</v>
@@ -712,10 +729,10 @@
         <v>35</v>
       </c>
       <c r="T4">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1840</v>
       </c>
@@ -732,7 +749,7 @@
         <v>1.86</v>
       </c>
       <c r="F5">
-        <v>1.493</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="G5">
         <v>1400.75</v>
@@ -747,13 +764,13 @@
         <v>29</v>
       </c>
       <c r="K5">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L5">
         <v>240</v>
       </c>
       <c r="M5">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="N5">
         <v>132</v>
@@ -768,10 +785,10 @@
         <v>34</v>
       </c>
       <c r="T5">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1872</v>
       </c>
@@ -794,7 +811,7 @@
         <v>1312.9</v>
       </c>
       <c r="H6">
-        <v>2.646</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="I6" t="s">
         <v>27</v>
@@ -803,7 +820,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L6">
         <v>280</v>
@@ -824,10 +841,10 @@
         <v>35</v>
       </c>
       <c r="T6">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1978</v>
       </c>
@@ -850,7 +867,7 @@
         <v>1436.1</v>
       </c>
       <c r="H7">
-        <v>2.776</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="I7" t="s">
         <v>27</v>
@@ -859,7 +876,7 @@
         <v>30</v>
       </c>
       <c r="K7">
-        <v>316.6990291</v>
+        <v>316.69902910000002</v>
       </c>
       <c r="L7">
         <v>320</v>
@@ -883,7 +900,7 @@
         <v>299.14</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2090</v>
       </c>
@@ -906,7 +923,7 @@
         <v>1448.1</v>
       </c>
       <c r="H8">
-        <v>2.776</v>
+        <v>2.7759999999999998</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
@@ -915,7 +932,7 @@
         <v>29</v>
       </c>
       <c r="K8">
-        <v>313.2038835</v>
+        <v>313.20388350000002</v>
       </c>
       <c r="L8">
         <v>300</v>
@@ -939,7 +956,7 @@
         <v>301.92</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2508</v>
       </c>
@@ -953,7 +970,7 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1.777</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="F9">
         <v>1.421</v>
@@ -971,7 +988,7 @@
         <v>29</v>
       </c>
       <c r="K9">
-        <v>307.9126214</v>
+        <v>307.91262139999998</v>
       </c>
       <c r="L9">
         <v>200</v>
@@ -995,7 +1012,7 @@
         <v>294.875</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2592</v>
       </c>
@@ -1009,7 +1026,7 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1.777</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="F10">
         <v>1.421</v>
@@ -1027,7 +1044,7 @@
         <v>30</v>
       </c>
       <c r="K10">
-        <v>307.9126214</v>
+        <v>307.91262139999998</v>
       </c>
       <c r="L10">
         <v>250</v>
@@ -1051,7 +1068,7 @@
         <v>294.875</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3079</v>
       </c>
@@ -1065,13 +1082,13 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1.811</v>
+        <v>1.8109999999999999</v>
       </c>
       <c r="F11">
         <v>1.429</v>
       </c>
       <c r="G11">
-        <v>1431.525</v>
+        <v>1431.5250000000001</v>
       </c>
       <c r="H11">
         <v>2.81</v>
@@ -1083,7 +1100,7 @@
         <v>30</v>
       </c>
       <c r="K11">
-        <v>316.6990291</v>
+        <v>316.69902910000002</v>
       </c>
       <c r="L11">
         <v>270</v>
@@ -1107,7 +1124,7 @@
         <v>299.14</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3198</v>
       </c>
@@ -1121,10 +1138,10 @@
         <v>19</v>
       </c>
       <c r="E12">
-        <v>1.902</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="F12">
-        <v>1.471</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="G12">
         <v>1831</v>
@@ -1139,7 +1156,7 @@
         <v>30</v>
       </c>
       <c r="K12">
-        <v>340.4368932</v>
+        <v>340.43689319999999</v>
       </c>
       <c r="L12">
         <v>560</v>
@@ -1163,7 +1180,7 @@
         <v>321.005</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3231</v>
       </c>
@@ -1177,10 +1194,10 @@
         <v>19</v>
       </c>
       <c r="E13">
-        <v>1.902</v>
+        <v>1.9019999999999999</v>
       </c>
       <c r="F13">
-        <v>1.481</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="G13">
         <v>1954.65</v>
@@ -1195,7 +1212,7 @@
         <v>29</v>
       </c>
       <c r="K13">
-        <v>340.8737864</v>
+        <v>340.87378639999997</v>
       </c>
       <c r="L13">
         <v>650</v>
@@ -1216,10 +1233,10 @@
         <v>34</v>
       </c>
       <c r="T13">
-        <v>324.15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>324.14999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>3408</v>
       </c>
@@ -1233,7 +1250,7 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1.733</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="F14">
         <v>1.518</v>
@@ -1251,13 +1268,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>301.6990291</v>
+        <v>301.69902910000002</v>
       </c>
       <c r="L14">
         <v>135</v>
       </c>
       <c r="M14">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="N14">
         <v>66</v>
@@ -1272,10 +1289,10 @@
         <v>35</v>
       </c>
       <c r="T14">
-        <v>284.295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+        <v>284.29500000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4350</v>
       </c>
@@ -1292,7 +1309,7 @@
         <v>1.76</v>
       </c>
       <c r="F15">
-        <v>1.525</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="G15">
         <v>1364.5</v>
@@ -1328,10 +1345,10 @@
         <v>35</v>
       </c>
       <c r="T15">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4396</v>
       </c>
@@ -1363,7 +1380,7 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>283.0582524</v>
+        <v>283.05825240000001</v>
       </c>
       <c r="L16">
         <v>124</v>
@@ -1384,10 +1401,10 @@
         <v>35</v>
       </c>
       <c r="T16">
-        <v>266.525</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>266.52499999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>4416</v>
       </c>
@@ -1419,7 +1436,7 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>283.0582524</v>
+        <v>283.05825240000001</v>
       </c>
       <c r="L17">
         <v>170</v>
@@ -1440,10 +1457,10 @@
         <v>35</v>
       </c>
       <c r="T17">
-        <v>266.525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>266.52499999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>4957</v>
       </c>
@@ -1460,13 +1477,13 @@
         <v>1.9</v>
       </c>
       <c r="F18">
-        <v>1.515</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="G18">
-        <v>2520.2</v>
+        <v>2520.1999999999998</v>
       </c>
       <c r="H18">
-        <v>3.116</v>
+        <v>3.1160000000000001</v>
       </c>
       <c r="I18" t="s">
         <v>26</v>
@@ -1475,13 +1492,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>345.6796117</v>
+        <v>345.67961170000001</v>
       </c>
       <c r="L18">
         <v>999</v>
       </c>
       <c r="M18">
-        <v>99.09999999999999</v>
+        <v>99.1</v>
       </c>
       <c r="N18">
         <v>373</v>
@@ -1496,10 +1513,10 @@
         <v>34</v>
       </c>
       <c r="T18">
-        <v>330.805</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>330.80500000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>5338</v>
       </c>
@@ -1516,13 +1533,13 @@
         <v>1.831</v>
       </c>
       <c r="F19">
-        <v>1.608</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="G19">
         <v>1536.8</v>
       </c>
       <c r="H19">
-        <v>2.603</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="I19" t="s">
         <v>28</v>
@@ -1531,7 +1548,7 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>335.0970874</v>
+        <v>335.09708740000002</v>
       </c>
       <c r="L19">
         <v>380</v>
@@ -1552,10 +1569,10 @@
         <v>35</v>
       </c>
       <c r="T19">
-        <v>316.715</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>316.71499999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>5358</v>
       </c>
@@ -1572,13 +1589,13 @@
         <v>1.831</v>
       </c>
       <c r="F20">
-        <v>1.608</v>
+        <v>1.6080000000000001</v>
       </c>
       <c r="G20">
         <v>1496.8</v>
       </c>
       <c r="H20">
-        <v>2.603</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="I20" t="s">
         <v>28</v>
@@ -1587,7 +1604,7 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>335.0970874</v>
+        <v>335.09708740000002</v>
       </c>
       <c r="L20">
         <v>350</v>
@@ -1608,10 +1625,10 @@
         <v>34</v>
       </c>
       <c r="T20">
-        <v>316.715</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>316.71499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5380</v>
       </c>
@@ -1625,7 +1642,7 @@
         <v>23</v>
       </c>
       <c r="E21">
-        <v>1.832</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="F21">
         <v>1.355</v>
@@ -1634,7 +1651,7 @@
         <v>1301.25</v>
       </c>
       <c r="H21">
-        <v>2.505</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="I21" t="s">
         <v>27</v>
@@ -1643,7 +1660,7 @@
         <v>30</v>
       </c>
       <c r="K21">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L21">
         <v>380</v>
@@ -1664,10 +1681,10 @@
         <v>35</v>
       </c>
       <c r="T21">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5391</v>
       </c>
@@ -1681,7 +1698,7 @@
         <v>23</v>
       </c>
       <c r="E22">
-        <v>1.832</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="F22">
         <v>1.355</v>
@@ -1690,7 +1707,7 @@
         <v>1362.875</v>
       </c>
       <c r="H22">
-        <v>2.505</v>
+        <v>2.5049999999999999</v>
       </c>
       <c r="I22" t="s">
         <v>28</v>
@@ -1699,7 +1716,7 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L22">
         <v>370</v>
@@ -1720,10 +1737,10 @@
         <v>34</v>
       </c>
       <c r="T22">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5595</v>
       </c>
@@ -1737,7 +1754,7 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1.894</v>
+        <v>1.8939999999999999</v>
       </c>
       <c r="F23">
         <v>1.365</v>
@@ -1755,13 +1772,13 @@
         <v>29</v>
       </c>
       <c r="K23">
-        <v>328.9805825</v>
+        <v>328.98058250000003</v>
       </c>
       <c r="L23">
         <v>450</v>
       </c>
       <c r="M23">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="N23">
         <v>235</v>
@@ -1776,10 +1793,10 @@
         <v>34</v>
       </c>
       <c r="T23">
-        <v>314.595</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>314.59500000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5603</v>
       </c>
@@ -1793,7 +1810,7 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1.894</v>
+        <v>1.8939999999999999</v>
       </c>
       <c r="F24">
         <v>1.369</v>
@@ -1832,10 +1849,10 @@
         <v>34</v>
       </c>
       <c r="T24">
-        <v>312.425</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+        <v>312.42500000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>5630</v>
       </c>
@@ -1849,16 +1866,16 @@
         <v>20</v>
       </c>
       <c r="E25">
-        <v>1.789</v>
+        <v>1.7889999999999999</v>
       </c>
       <c r="F25">
-        <v>1.489</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="G25">
         <v>1214.5</v>
       </c>
       <c r="H25">
-        <v>2.608</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="I25" t="s">
         <v>27</v>
@@ -1888,10 +1905,10 @@
         <v>35</v>
       </c>
       <c r="T25">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>5635</v>
       </c>
@@ -1905,16 +1922,16 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1.789</v>
+        <v>1.7889999999999999</v>
       </c>
       <c r="F26">
-        <v>1.489</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="G26">
         <v>1134.5</v>
       </c>
       <c r="H26">
-        <v>2.608</v>
+        <v>2.6080000000000001</v>
       </c>
       <c r="I26" t="s">
         <v>27</v>
@@ -1923,7 +1940,7 @@
         <v>29</v>
       </c>
       <c r="K26">
-        <v>308.0097087</v>
+        <v>308.00970869999998</v>
       </c>
       <c r="L26">
         <v>205</v>
@@ -1944,10 +1961,10 @@
         <v>35</v>
       </c>
       <c r="T26">
-        <v>289.365</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>289.36500000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>5718</v>
       </c>
@@ -2000,10 +2017,10 @@
         <v>35</v>
       </c>
       <c r="T27">
-        <v>312.425</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>312.42500000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>5725</v>
       </c>
@@ -2023,7 +2040,7 @@
         <v>1.48</v>
       </c>
       <c r="G28">
-        <v>1273.15</v>
+        <v>1273.1500000000001</v>
       </c>
       <c r="H28">
         <v>2.75</v>
@@ -2056,10 +2073,10 @@
         <v>34</v>
       </c>
       <c r="T28">
-        <v>312.425</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>312.42500000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5766</v>
       </c>
@@ -2076,13 +2093,13 @@
         <v>1.736</v>
       </c>
       <c r="F29">
-        <v>1.479</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="G29">
         <v>1068.625</v>
       </c>
       <c r="H29">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I29" t="s">
         <v>27</v>
@@ -2091,7 +2108,7 @@
         <v>30</v>
       </c>
       <c r="K29">
-        <v>301.407767</v>
+        <v>301.40776699999998</v>
       </c>
       <c r="L29">
         <v>190</v>
@@ -2112,10 +2129,10 @@
         <v>34</v>
       </c>
       <c r="T29">
-        <v>286.855</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>286.85500000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5768</v>
       </c>
@@ -2132,13 +2149,13 @@
         <v>1.736</v>
       </c>
       <c r="F30">
-        <v>1.479</v>
+        <v>1.4790000000000001</v>
       </c>
       <c r="G30">
         <v>1010.625</v>
       </c>
       <c r="H30">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I30" t="s">
         <v>27</v>
@@ -2147,13 +2164,13 @@
         <v>29</v>
       </c>
       <c r="K30">
-        <v>301.407767</v>
+        <v>301.40776699999998</v>
       </c>
       <c r="L30">
         <v>130</v>
       </c>
       <c r="M30">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="N30">
         <v>66</v>
@@ -2168,10 +2185,10 @@
         <v>35</v>
       </c>
       <c r="T30">
-        <v>286.855</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>286.85500000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5779</v>
       </c>
@@ -2188,13 +2205,13 @@
         <v>1.732</v>
       </c>
       <c r="F31">
-        <v>1.467</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="G31">
         <v>924.625</v>
       </c>
       <c r="H31">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I31" t="s">
         <v>27</v>
@@ -2203,13 +2220,13 @@
         <v>29</v>
       </c>
       <c r="K31">
-        <v>292.7184466</v>
+        <v>292.71844659999999</v>
       </c>
       <c r="L31">
         <v>95</v>
       </c>
       <c r="M31">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="N31">
         <v>55</v>
@@ -2227,7 +2244,7 @@
         <v>277.08</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5798</v>
       </c>
@@ -2244,13 +2261,13 @@
         <v>1.732</v>
       </c>
       <c r="F32">
-        <v>1.467</v>
+        <v>1.4670000000000001</v>
       </c>
       <c r="G32">
         <v>1034.625</v>
       </c>
       <c r="H32">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I32" t="s">
         <v>27</v>
@@ -2259,7 +2276,7 @@
         <v>30</v>
       </c>
       <c r="K32">
-        <v>292.7184466</v>
+        <v>292.71844659999999</v>
       </c>
       <c r="L32">
         <v>250</v>
@@ -2283,7 +2300,7 @@
         <v>277.08</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5897</v>
       </c>
@@ -2297,16 +2314,16 @@
         <v>19</v>
       </c>
       <c r="E33">
-        <v>1.874</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="F33">
-        <v>1.455</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="G33">
-        <v>1690.725</v>
+        <v>1690.7249999999999</v>
       </c>
       <c r="H33">
-        <v>2.912</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="I33" t="s">
         <v>28</v>
@@ -2315,13 +2332,13 @@
         <v>30</v>
       </c>
       <c r="K33">
-        <v>333.3009709</v>
+        <v>333.30097089999998</v>
       </c>
       <c r="L33">
         <v>500</v>
       </c>
       <c r="M33">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="N33">
         <v>160</v>
@@ -2339,7 +2356,7 @@
         <v>320.86</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5909</v>
       </c>
@@ -2353,16 +2370,16 @@
         <v>19</v>
       </c>
       <c r="E34">
-        <v>1.874</v>
+        <v>1.8740000000000001</v>
       </c>
       <c r="F34">
-        <v>1.455</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="G34">
         <v>1674.375</v>
       </c>
       <c r="H34">
-        <v>2.912</v>
+        <v>2.9119999999999999</v>
       </c>
       <c r="I34" t="s">
         <v>28</v>
@@ -2371,7 +2388,7 @@
         <v>29</v>
       </c>
       <c r="K34">
-        <v>328.9805825</v>
+        <v>328.98058250000003</v>
       </c>
       <c r="L34">
         <v>440</v>
@@ -2392,10 +2409,10 @@
         <v>34</v>
       </c>
       <c r="T34">
-        <v>314.595</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>314.59500000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5915</v>
       </c>
@@ -2418,7 +2435,7 @@
         <v>1761.125</v>
       </c>
       <c r="H35">
-        <v>2.914</v>
+        <v>2.9140000000000001</v>
       </c>
       <c r="I35" t="s">
         <v>28</v>
@@ -2427,13 +2444,13 @@
         <v>30</v>
       </c>
       <c r="K35">
-        <v>333.3495146</v>
+        <v>333.34951460000002</v>
       </c>
       <c r="L35">
         <v>580</v>
       </c>
       <c r="M35">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="N35">
         <v>200</v>
@@ -2448,10 +2465,10 @@
         <v>34</v>
       </c>
       <c r="T35">
-        <v>318.105</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>318.10500000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5928</v>
       </c>
@@ -2474,7 +2491,7 @@
         <v>1741.125</v>
       </c>
       <c r="H36">
-        <v>2.914</v>
+        <v>2.9140000000000001</v>
       </c>
       <c r="I36" t="s">
         <v>28</v>
@@ -2483,7 +2500,7 @@
         <v>29</v>
       </c>
       <c r="K36">
-        <v>333.3495146</v>
+        <v>333.34951460000002</v>
       </c>
       <c r="L36">
         <v>440</v>
@@ -2504,10 +2521,10 @@
         <v>34</v>
       </c>
       <c r="T36">
-        <v>318.105</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
+        <v>318.10500000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>6222</v>
       </c>
@@ -2527,7 +2544,7 @@
         <v>1.661</v>
       </c>
       <c r="G37">
-        <v>1749.775</v>
+        <v>1749.7750000000001</v>
       </c>
       <c r="H37">
         <v>2.81</v>
@@ -2539,7 +2556,7 @@
         <v>30</v>
       </c>
       <c r="K37">
-        <v>340.6796117</v>
+        <v>340.67961170000001</v>
       </c>
       <c r="L37">
         <v>560</v>
@@ -2563,7 +2580,7 @@
         <v>321.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>6331</v>
       </c>
@@ -2580,7 +2597,7 @@
         <v>1.91</v>
       </c>
       <c r="F38">
-        <v>1.322</v>
+        <v>1.3220000000000001</v>
       </c>
       <c r="G38">
         <v>1572.35</v>
@@ -2595,7 +2612,7 @@
         <v>29</v>
       </c>
       <c r="K38">
-        <v>329.4174757</v>
+        <v>329.41747570000001</v>
       </c>
       <c r="L38">
         <v>755</v>
@@ -2619,7 +2636,7 @@
         <v>317.74</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6378</v>
       </c>
@@ -2642,7 +2659,7 @@
         <v>1233.875</v>
       </c>
       <c r="H39">
-        <v>2.648</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="I39" t="s">
         <v>27</v>
@@ -2651,13 +2668,13 @@
         <v>29</v>
       </c>
       <c r="K39">
-        <v>313.9805825</v>
+        <v>313.98058250000003</v>
       </c>
       <c r="L39">
         <v>240</v>
       </c>
       <c r="M39">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="N39">
         <v>110</v>
@@ -2675,7 +2692,7 @@
         <v>299.75</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>6382</v>
       </c>
@@ -2695,10 +2712,10 @@
         <v>1.484</v>
       </c>
       <c r="G40">
-        <v>1286.225</v>
+        <v>1286.2249999999999</v>
       </c>
       <c r="H40">
-        <v>2.648</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="I40" t="s">
         <v>27</v>
@@ -2707,7 +2724,7 @@
         <v>30</v>
       </c>
       <c r="K40">
-        <v>313.9805825</v>
+        <v>313.98058250000003</v>
       </c>
       <c r="L40">
         <v>370</v>
@@ -2731,7 +2748,7 @@
         <v>299.75</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6386</v>
       </c>
@@ -2745,13 +2762,13 @@
         <v>20</v>
       </c>
       <c r="E41">
-        <v>1.852</v>
+        <v>1.8520000000000001</v>
       </c>
       <c r="F41">
         <v>1.482</v>
       </c>
       <c r="G41">
-        <v>1362.475</v>
+        <v>1362.4749999999999</v>
       </c>
       <c r="H41">
         <v>2.85</v>
@@ -2763,13 +2780,13 @@
         <v>29</v>
       </c>
       <c r="K41">
-        <v>322.5242718</v>
+        <v>322.52427180000001</v>
       </c>
       <c r="L41">
         <v>240</v>
       </c>
       <c r="M41">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="N41">
         <v>118</v>
@@ -2787,7 +2804,7 @@
         <v>303.82</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6390</v>
       </c>
@@ -2801,13 +2818,13 @@
         <v>20</v>
       </c>
       <c r="E42">
-        <v>1.852</v>
+        <v>1.8520000000000001</v>
       </c>
       <c r="F42">
         <v>1.482</v>
       </c>
       <c r="G42">
-        <v>1435.475</v>
+        <v>1435.4749999999999</v>
       </c>
       <c r="H42">
         <v>2.85</v>
@@ -2819,7 +2836,7 @@
         <v>30</v>
       </c>
       <c r="K42">
-        <v>322.5242718</v>
+        <v>322.52427180000001</v>
       </c>
       <c r="L42">
         <v>350</v>
@@ -2843,7 +2860,7 @@
         <v>303.82</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>6446</v>
       </c>
@@ -2866,7 +2883,7 @@
         <v>1696.75</v>
       </c>
       <c r="H43">
-        <v>2.741</v>
+        <v>2.7410000000000001</v>
       </c>
       <c r="I43" t="s">
         <v>28</v>
@@ -2881,7 +2898,7 @@
         <v>340</v>
       </c>
       <c r="M43">
-        <v>83.09999999999999</v>
+        <v>83.1</v>
       </c>
       <c r="N43">
         <v>177</v>
@@ -2896,10 +2913,10 @@
         <v>34</v>
       </c>
       <c r="T43">
-        <v>342.115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
+        <v>342.11500000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>7661</v>
       </c>
@@ -2913,7 +2930,7 @@
         <v>20</v>
       </c>
       <c r="E44">
-        <v>1.814</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="F44">
         <v>1.51</v>
@@ -2922,7 +2939,7 @@
         <v>1292.2</v>
       </c>
       <c r="H44">
-        <v>2.685</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="I44" t="s">
         <v>27</v>
@@ -2931,7 +2948,7 @@
         <v>29</v>
       </c>
       <c r="K44">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L44">
         <v>260</v>
@@ -2952,10 +2969,10 @@
         <v>35</v>
       </c>
       <c r="T44">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>7683</v>
       </c>
@@ -2969,7 +2986,7 @@
         <v>20</v>
       </c>
       <c r="E45">
-        <v>1.814</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="F45">
         <v>1.51</v>
@@ -2978,7 +2995,7 @@
         <v>1380.2</v>
       </c>
       <c r="H45">
-        <v>2.685</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="I45" t="s">
         <v>27</v>
@@ -2987,13 +3004,13 @@
         <v>30</v>
       </c>
       <c r="K45">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L45">
         <v>350</v>
       </c>
       <c r="M45">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="N45">
         <v>121</v>
@@ -3008,10 +3025,10 @@
         <v>35</v>
       </c>
       <c r="T45">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>7836</v>
       </c>
@@ -3025,16 +3042,16 @@
         <v>22</v>
       </c>
       <c r="E46">
-        <v>1.777</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="F46">
-        <v>1.658</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="G46">
-        <v>1258.225</v>
+        <v>1258.2249999999999</v>
       </c>
       <c r="H46">
-        <v>2.555</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="I46" t="s">
         <v>27</v>
@@ -3049,7 +3066,7 @@
         <v>200</v>
       </c>
       <c r="M46">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="N46">
         <v>103</v>
@@ -3067,7 +3084,7 @@
         <v>316.52</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>7839</v>
       </c>
@@ -3081,16 +3098,16 @@
         <v>22</v>
       </c>
       <c r="E47">
-        <v>1.777</v>
+        <v>1.7769999999999999</v>
       </c>
       <c r="F47">
-        <v>1.658</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="G47">
         <v>1313.9</v>
       </c>
       <c r="H47">
-        <v>2.555</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="I47" t="s">
         <v>27</v>
@@ -3105,7 +3122,7 @@
         <v>320</v>
       </c>
       <c r="M47">
-        <v>80.09999999999999</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="N47">
         <v>100</v>
@@ -3123,7 +3140,7 @@
         <v>316.52</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>7897</v>
       </c>
@@ -3137,7 +3154,7 @@
         <v>20</v>
       </c>
       <c r="E48">
-        <v>1.739</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="F48">
         <v>1.45</v>
@@ -3146,7 +3163,7 @@
         <v>1101.25</v>
       </c>
       <c r="H48">
-        <v>2.538</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="I48" t="s">
         <v>27</v>
@@ -3155,7 +3172,7 @@
         <v>29</v>
       </c>
       <c r="K48">
-        <v>301.5533981</v>
+        <v>301.55339809999998</v>
       </c>
       <c r="L48">
         <v>300</v>
@@ -3179,7 +3196,7 @@
         <v>292.56</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>7972</v>
       </c>
@@ -3193,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="E49">
-        <v>1.739</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="F49">
         <v>1.46</v>
@@ -3202,7 +3219,7 @@
         <v>1021.25</v>
       </c>
       <c r="H49">
-        <v>2.538</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="I49" t="s">
         <v>27</v>
@@ -3211,7 +3228,7 @@
         <v>30</v>
       </c>
       <c r="K49">
-        <v>301.6990291</v>
+        <v>301.69902910000002</v>
       </c>
       <c r="L49">
         <v>230</v>
@@ -3232,10 +3249,10 @@
         <v>35</v>
       </c>
       <c r="T49">
-        <v>284.295</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20">
+        <v>284.29500000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>7976</v>
       </c>
@@ -3252,13 +3269,13 @@
         <v>1.81</v>
       </c>
       <c r="F50">
-        <v>1.801</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="G50">
         <v>1363.5</v>
       </c>
       <c r="H50">
-        <v>2.728</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="I50" t="s">
         <v>27</v>
@@ -3267,7 +3284,7 @@
         <v>30</v>
       </c>
       <c r="K50">
-        <v>314.3203883</v>
+        <v>314.32038829999999</v>
       </c>
       <c r="L50">
         <v>215</v>
@@ -3291,7 +3308,7 @@
         <v>294.435</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>7979</v>
       </c>
@@ -3308,13 +3325,13 @@
         <v>1.81</v>
       </c>
       <c r="F51">
-        <v>1.801</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="G51">
         <v>1254.5</v>
       </c>
       <c r="H51">
-        <v>2.728</v>
+        <v>2.7280000000000002</v>
       </c>
       <c r="I51" t="s">
         <v>27</v>
@@ -3323,7 +3340,7 @@
         <v>29</v>
       </c>
       <c r="K51">
-        <v>314.3203883</v>
+        <v>314.32038829999999</v>
       </c>
       <c r="L51">
         <v>160</v>
@@ -3347,7 +3364,7 @@
         <v>294.435</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>7995</v>
       </c>
@@ -3361,16 +3378,16 @@
         <v>23</v>
       </c>
       <c r="E52">
-        <v>1.801</v>
+        <v>1.8009999999999999</v>
       </c>
       <c r="F52">
-        <v>1.273</v>
+        <v>1.2729999999999999</v>
       </c>
       <c r="G52">
         <v>1306.8</v>
       </c>
       <c r="H52">
-        <v>2.475</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="I52" t="s">
         <v>26</v>
@@ -3379,7 +3396,7 @@
         <v>29</v>
       </c>
       <c r="K52">
-        <v>326.4563107</v>
+        <v>326.45631070000002</v>
       </c>
       <c r="L52">
         <v>370</v>
@@ -3400,10 +3417,10 @@
         <v>34</v>
       </c>
       <c r="T52">
-        <v>318.155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20">
+        <v>318.15499999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>8183</v>
       </c>
@@ -3417,7 +3434,7 @@
         <v>20</v>
       </c>
       <c r="E53">
-        <v>1.654</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="F53">
         <v>1.47</v>
@@ -3435,7 +3452,7 @@
         <v>29</v>
       </c>
       <c r="K53">
-        <v>283.0582524</v>
+        <v>283.05825240000001</v>
       </c>
       <c r="L53">
         <v>107</v>
@@ -3456,10 +3473,10 @@
         <v>35</v>
       </c>
       <c r="T53">
-        <v>266.525</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
+        <v>266.52499999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>8188</v>
       </c>
@@ -3473,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="E54">
-        <v>1.654</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="F54">
         <v>1.47</v>
@@ -3491,7 +3508,7 @@
         <v>30</v>
       </c>
       <c r="K54">
-        <v>283.0582524</v>
+        <v>283.05825240000001</v>
       </c>
       <c r="L54">
         <v>200</v>
@@ -3512,10 +3529,10 @@
         <v>35</v>
       </c>
       <c r="T54">
-        <v>266.525</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20">
+        <v>266.52499999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>8267</v>
       </c>
@@ -3529,16 +3546,16 @@
         <v>21</v>
       </c>
       <c r="E55">
-        <v>1.693</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="F55">
-        <v>1.445</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="G55">
         <v>1074.625</v>
       </c>
       <c r="H55">
-        <v>2.469</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="I55" t="s">
         <v>27</v>
@@ -3547,13 +3564,13 @@
         <v>30</v>
       </c>
       <c r="K55">
-        <v>292.7184466</v>
+        <v>292.71844659999999</v>
       </c>
       <c r="L55">
         <v>180</v>
       </c>
       <c r="M55">
-        <v>80.90000000000001</v>
+        <v>80.900000000000006</v>
       </c>
       <c r="N55">
         <v>55</v>
@@ -3571,7 +3588,7 @@
         <v>277.08</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8280</v>
       </c>
@@ -3585,16 +3602,16 @@
         <v>21</v>
       </c>
       <c r="E56">
-        <v>1.693</v>
+        <v>1.6930000000000001</v>
       </c>
       <c r="F56">
-        <v>1.445</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="G56">
         <v>1014.625</v>
       </c>
       <c r="H56">
-        <v>2.469</v>
+        <v>2.4689999999999999</v>
       </c>
       <c r="I56" t="s">
         <v>27</v>
@@ -3603,13 +3620,13 @@
         <v>29</v>
       </c>
       <c r="K56">
-        <v>291.2135922</v>
+        <v>291.21359219999999</v>
       </c>
       <c r="L56">
         <v>160</v>
       </c>
       <c r="M56">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N56">
         <v>63</v>
@@ -3624,10 +3641,10 @@
         <v>35</v>
       </c>
       <c r="T56">
-        <v>278.665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20">
+        <v>278.66500000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>8358</v>
       </c>
@@ -3644,7 +3661,7 @@
         <v>1.641</v>
       </c>
       <c r="F57">
-        <v>1.463</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="G57">
         <v>805.375</v>
@@ -3665,7 +3682,7 @@
         <v>95</v>
       </c>
       <c r="M57">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="N57">
         <v>55</v>
@@ -3683,7 +3700,7 @@
         <v>267.89</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>8592</v>
       </c>
@@ -3697,7 +3714,7 @@
         <v>20</v>
       </c>
       <c r="E58">
-        <v>1.687</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="F58">
         <v>1.49</v>
@@ -3706,7 +3723,7 @@
         <v>1074.625</v>
       </c>
       <c r="H58">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I58" t="s">
         <v>27</v>
@@ -3715,7 +3732,7 @@
         <v>30</v>
       </c>
       <c r="K58">
-        <v>301.407767</v>
+        <v>301.40776699999998</v>
       </c>
       <c r="L58">
         <v>200</v>
@@ -3736,10 +3753,10 @@
         <v>35</v>
       </c>
       <c r="T58">
-        <v>286.855</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20">
+        <v>286.85500000000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>8620</v>
       </c>
@@ -3753,7 +3770,7 @@
         <v>20</v>
       </c>
       <c r="E59">
-        <v>1.687</v>
+        <v>1.6870000000000001</v>
       </c>
       <c r="F59">
         <v>1.49</v>
@@ -3762,7 +3779,7 @@
         <v>984.625</v>
       </c>
       <c r="H59">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I59" t="s">
         <v>27</v>
@@ -3771,7 +3788,7 @@
         <v>29</v>
       </c>
       <c r="K59">
-        <v>301.6990291</v>
+        <v>301.69902910000002</v>
       </c>
       <c r="L59">
         <v>115</v>
@@ -3792,10 +3809,10 @@
         <v>35</v>
       </c>
       <c r="T59">
-        <v>284.295</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20">
+        <v>284.29500000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>8709</v>
       </c>
@@ -3812,10 +3829,10 @@
         <v>1.78</v>
       </c>
       <c r="F60">
-        <v>1.465</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="G60">
-        <v>1132.225</v>
+        <v>1132.2249999999999</v>
       </c>
       <c r="H60">
         <v>2.65</v>
@@ -3827,13 +3844,13 @@
         <v>29</v>
       </c>
       <c r="K60">
-        <v>308.0097087</v>
+        <v>308.00970869999998</v>
       </c>
       <c r="L60">
         <v>164</v>
       </c>
       <c r="M60">
-        <v>85.40000000000001</v>
+        <v>85.4</v>
       </c>
       <c r="N60">
         <v>99</v>
@@ -3848,10 +3865,10 @@
         <v>35</v>
       </c>
       <c r="T60">
-        <v>289.365</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20">
+        <v>289.36500000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>8866</v>
       </c>
@@ -3883,7 +3900,7 @@
         <v>30</v>
       </c>
       <c r="K61">
-        <v>357.9126214</v>
+        <v>357.91262139999998</v>
       </c>
       <c r="L61">
         <v>420</v>
@@ -3904,10 +3921,10 @@
         <v>35</v>
       </c>
       <c r="T61">
-        <v>335.045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20">
+        <v>335.04500000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>8996</v>
       </c>
@@ -3924,10 +3941,10 @@
         <v>1.76</v>
       </c>
       <c r="F62">
-        <v>1.951</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="G62">
-        <v>2405.2</v>
+        <v>2405.1999999999998</v>
       </c>
       <c r="H62">
         <v>2.85</v>
@@ -3939,7 +3956,7 @@
         <v>30</v>
       </c>
       <c r="K62">
-        <v>377.3786408</v>
+        <v>377.37864080000003</v>
       </c>
       <c r="L62">
         <v>540</v>
@@ -3963,7 +3980,7 @@
         <v>347.89</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>9001</v>
       </c>
@@ -3983,7 +4000,7 @@
         <v>1.956</v>
       </c>
       <c r="G63">
-        <v>2170.2</v>
+        <v>2170.1999999999998</v>
       </c>
       <c r="H63">
         <v>2.4</v>
@@ -3995,7 +4012,7 @@
         <v>29</v>
       </c>
       <c r="K63">
-        <v>376.3106796</v>
+        <v>376.31067960000001</v>
       </c>
       <c r="L63">
         <v>530</v>
@@ -4019,7 +4036,7 @@
         <v>352.62</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>9551</v>
       </c>
@@ -4033,7 +4050,7 @@
         <v>22</v>
       </c>
       <c r="E64">
-        <v>1.985</v>
+        <v>1.9850000000000001</v>
       </c>
       <c r="F64">
         <v>1.754</v>
@@ -4042,7 +4059,7 @@
         <v>2192.625</v>
       </c>
       <c r="H64">
-        <v>2.933</v>
+        <v>2.9329999999999998</v>
       </c>
       <c r="I64" t="s">
         <v>28</v>
@@ -4051,7 +4068,7 @@
         <v>29</v>
       </c>
       <c r="K64">
-        <v>357.2815534</v>
+        <v>357.28155340000001</v>
       </c>
       <c r="L64">
         <v>750</v>
@@ -4075,7 +4092,7 @@
         <v>342.92</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>9575</v>
       </c>
@@ -4092,7 +4109,7 @@
         <v>1.79</v>
       </c>
       <c r="F65">
-        <v>1.291</v>
+        <v>1.2909999999999999</v>
       </c>
       <c r="G65">
         <v>1332.875</v>
@@ -4107,13 +4124,13 @@
         <v>29</v>
       </c>
       <c r="K65">
-        <v>307.9126214</v>
+        <v>307.91262139999998</v>
       </c>
       <c r="L65">
         <v>270</v>
       </c>
       <c r="M65">
-        <v>90.09999999999999</v>
+        <v>90.1</v>
       </c>
       <c r="N65">
         <v>135</v>
@@ -4131,7 +4148,7 @@
         <v>294.875</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>9639</v>
       </c>
@@ -4163,7 +4180,7 @@
         <v>30</v>
       </c>
       <c r="K66">
-        <v>301.407767</v>
+        <v>301.40776699999998</v>
       </c>
       <c r="L66">
         <v>254</v>
@@ -4184,10 +4201,10 @@
         <v>35</v>
       </c>
       <c r="T66">
-        <v>286.855</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20">
+        <v>286.85500000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>9645</v>
       </c>
@@ -4219,7 +4236,7 @@
         <v>29</v>
       </c>
       <c r="K67">
-        <v>301.407767</v>
+        <v>301.40776699999998</v>
       </c>
       <c r="L67">
         <v>205</v>
@@ -4240,10 +4257,10 @@
         <v>35</v>
       </c>
       <c r="T67">
-        <v>286.855</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20">
+        <v>286.85500000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>9738</v>
       </c>
@@ -4257,7 +4274,7 @@
         <v>22</v>
       </c>
       <c r="E68">
-        <v>1.838</v>
+        <v>1.8380000000000001</v>
       </c>
       <c r="F68">
         <v>1.702</v>
@@ -4275,13 +4292,13 @@
         <v>29</v>
       </c>
       <c r="K68">
-        <v>336.0194175</v>
+        <v>336.01941749999997</v>
       </c>
       <c r="L68">
         <v>240</v>
       </c>
       <c r="M68">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="N68">
         <v>110</v>
@@ -4299,7 +4316,7 @@
         <v>320.25</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>9754</v>
       </c>
@@ -4313,10 +4330,10 @@
         <v>22</v>
       </c>
       <c r="E69">
-        <v>1.838</v>
+        <v>1.8380000000000001</v>
       </c>
       <c r="F69">
-        <v>1.701</v>
+        <v>1.7010000000000001</v>
       </c>
       <c r="G69">
         <v>1561.5</v>
@@ -4331,7 +4348,7 @@
         <v>30</v>
       </c>
       <c r="K69">
-        <v>335.0970874</v>
+        <v>335.09708740000002</v>
       </c>
       <c r="L69">
         <v>400</v>
@@ -4352,10 +4369,10 @@
         <v>35</v>
       </c>
       <c r="T69">
-        <v>316.715</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20">
+        <v>316.71499999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>9769</v>
       </c>
@@ -4372,10 +4389,10 @@
         <v>1.78</v>
       </c>
       <c r="F70">
-        <v>1.465</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="G70">
-        <v>1229.225</v>
+        <v>1229.2249999999999</v>
       </c>
       <c r="H70">
         <v>2.65</v>
@@ -4408,10 +4425,10 @@
         <v>35</v>
       </c>
       <c r="T70">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>9856</v>
       </c>
@@ -4425,7 +4442,7 @@
         <v>22</v>
       </c>
       <c r="E71">
-        <v>1.983</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="F71">
         <v>1.84</v>
@@ -4443,7 +4460,7 @@
         <v>30</v>
       </c>
       <c r="K71">
-        <v>382.7669903</v>
+        <v>382.76699029999997</v>
       </c>
       <c r="L71">
         <v>600</v>
@@ -4464,10 +4481,10 @@
         <v>34</v>
       </c>
       <c r="T71">
-        <v>363.395</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20">
+        <v>363.39499999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>9872</v>
       </c>
@@ -4481,7 +4498,7 @@
         <v>22</v>
       </c>
       <c r="E72">
-        <v>1.983</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="F72">
         <v>1.835</v>
@@ -4490,7 +4507,7 @@
         <v>2259.125</v>
       </c>
       <c r="H72">
-        <v>2.922</v>
+        <v>2.9220000000000002</v>
       </c>
       <c r="I72" t="s">
         <v>28</v>
@@ -4499,7 +4516,7 @@
         <v>29</v>
       </c>
       <c r="K72">
-        <v>382.7669903</v>
+        <v>382.76699029999997</v>
       </c>
       <c r="L72">
         <v>625</v>
@@ -4520,10 +4537,10 @@
         <v>34</v>
       </c>
       <c r="T72">
-        <v>363.395</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20">
+        <v>363.39499999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>9882</v>
       </c>
@@ -4540,13 +4557,13 @@
         <v>1.948</v>
       </c>
       <c r="F73">
-        <v>1.481</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="G73">
         <v>1866</v>
       </c>
       <c r="H73">
-        <v>3.171</v>
+        <v>3.1709999999999998</v>
       </c>
       <c r="I73" t="s">
         <v>26</v>
@@ -4555,7 +4572,7 @@
         <v>29</v>
       </c>
       <c r="K73">
-        <v>341.3106796</v>
+        <v>341.31067960000001</v>
       </c>
       <c r="L73">
         <v>550</v>
@@ -4576,10 +4593,10 @@
         <v>34</v>
       </c>
       <c r="T73">
-        <v>327.295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20">
+        <v>327.29500000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>9885</v>
       </c>
@@ -4596,13 +4613,13 @@
         <v>1.948</v>
       </c>
       <c r="F74">
-        <v>1.481</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="G74">
         <v>1747.75</v>
       </c>
       <c r="H74">
-        <v>3.171</v>
+        <v>3.1709999999999998</v>
       </c>
       <c r="I74" t="s">
         <v>26</v>
@@ -4611,7 +4628,7 @@
         <v>30</v>
       </c>
       <c r="K74">
-        <v>341.3106796</v>
+        <v>341.31067960000001</v>
       </c>
       <c r="L74">
         <v>600</v>
@@ -4632,10 +4649,10 @@
         <v>34</v>
       </c>
       <c r="T74">
-        <v>327.295</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20">
+        <v>327.29500000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>9936</v>
       </c>
@@ -4652,7 +4669,7 @@
         <v>1.72</v>
       </c>
       <c r="F75">
-        <v>1.245</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="G75">
         <v>1016.25</v>
@@ -4667,13 +4684,13 @@
         <v>29</v>
       </c>
       <c r="K75">
-        <v>299.1747573</v>
+        <v>299.17475730000001</v>
       </c>
       <c r="L75">
         <v>167</v>
       </c>
       <c r="M75">
-        <v>83.09999999999999</v>
+        <v>83.1</v>
       </c>
       <c r="N75">
         <v>93</v>
@@ -4688,10 +4705,10 @@
         <v>35</v>
       </c>
       <c r="T75">
-        <v>287.855</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20">
+        <v>287.85500000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>10133</v>
       </c>
@@ -4708,7 +4725,7 @@
         <v>1.76</v>
       </c>
       <c r="F76">
-        <v>1.515</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="G76">
         <v>1322.875</v>
@@ -4744,10 +4761,10 @@
         <v>35</v>
       </c>
       <c r="T76">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>10328</v>
       </c>
@@ -4764,7 +4781,7 @@
         <v>1.77</v>
       </c>
       <c r="F77">
-        <v>1.457</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="G77">
         <v>1245.875</v>
@@ -4785,7 +4802,7 @@
         <v>185</v>
       </c>
       <c r="M77">
-        <v>83.09999999999999</v>
+        <v>83.1</v>
       </c>
       <c r="N77">
         <v>107</v>
@@ -4800,10 +4817,10 @@
         <v>35</v>
       </c>
       <c r="T77">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>10349</v>
       </c>
@@ -4820,7 +4837,7 @@
         <v>1.77</v>
       </c>
       <c r="F78">
-        <v>1.457</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="G78">
         <v>1332.9</v>
@@ -4835,7 +4852,7 @@
         <v>30</v>
       </c>
       <c r="K78">
-        <v>309.1262136</v>
+        <v>309.12621360000003</v>
       </c>
       <c r="L78">
         <v>340</v>
@@ -4856,10 +4873,10 @@
         <v>35</v>
       </c>
       <c r="T78">
-        <v>295.85</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20">
+        <v>295.85000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>15109</v>
       </c>
@@ -4882,7 +4899,7 @@
         <v>1069.75</v>
       </c>
       <c r="H79">
-        <v>2.305</v>
+        <v>2.3050000000000002</v>
       </c>
       <c r="I79" t="s">
         <v>28</v>
@@ -4912,10 +4929,10 @@
         <v>35</v>
       </c>
       <c r="T79">
-        <v>279.225</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20">
+        <v>279.22500000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>15552</v>
       </c>
@@ -4938,7 +4955,7 @@
         <v>1031.25</v>
       </c>
       <c r="H80">
-        <v>2.588</v>
+        <v>2.5880000000000001</v>
       </c>
       <c r="I80" t="s">
         <v>27</v>
@@ -4947,7 +4964,7 @@
         <v>30</v>
       </c>
       <c r="K80">
-        <v>301.6990291</v>
+        <v>301.69902910000002</v>
       </c>
       <c r="L80">
         <v>180</v>
@@ -4968,10 +4985,10 @@
         <v>35</v>
       </c>
       <c r="T80">
-        <v>284.295</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>284.29500000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>17145</v>
       </c>
@@ -4985,16 +5002,16 @@
         <v>20</v>
       </c>
       <c r="E81">
-        <v>1.515</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="F81">
-        <v>1.549</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="G81">
-        <v>707.725</v>
+        <v>707.72500000000002</v>
       </c>
       <c r="H81">
-        <v>1.812</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="I81" t="s">
         <v>26</v>
@@ -5003,7 +5020,7 @@
         <v>29</v>
       </c>
       <c r="K81">
-        <v>276.4563107</v>
+        <v>276.45631070000002</v>
       </c>
       <c r="L81">
         <v>95</v>
@@ -5024,10 +5041,10 @@
         <v>34</v>
       </c>
       <c r="T81">
-        <v>264.015</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>264.01499999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>17146</v>
       </c>
@@ -5041,16 +5058,16 @@
         <v>20</v>
       </c>
       <c r="E82">
-        <v>1.515</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="F82">
-        <v>1.549</v>
+        <v>1.5489999999999999</v>
       </c>
       <c r="G82">
         <v>715.15</v>
       </c>
       <c r="H82">
-        <v>1.812</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="I82" t="s">
         <v>26</v>
@@ -5059,7 +5076,7 @@
         <v>30</v>
       </c>
       <c r="K82">
-        <v>276.4563107</v>
+        <v>276.45631070000002</v>
       </c>
       <c r="L82">
         <v>100</v>
@@ -5080,10 +5097,10 @@
         <v>34</v>
       </c>
       <c r="T82">
-        <v>264.015</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>264.01499999999999</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>18173</v>
       </c>
@@ -5100,7 +5117,7 @@
         <v>1.9</v>
       </c>
       <c r="F83">
-        <v>1.184</v>
+        <v>1.1839999999999999</v>
       </c>
       <c r="G83">
         <v>1431</v>
@@ -5115,7 +5132,7 @@
         <v>29</v>
       </c>
       <c r="K83">
-        <v>314.1262136</v>
+        <v>314.12621360000003</v>
       </c>
       <c r="L83">
         <v>540</v>
@@ -5136,10 +5153,10 @@
         <v>35</v>
       </c>
       <c r="T83">
-        <v>305.455</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <v>305.45499999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>18195</v>
       </c>
@@ -5153,7 +5170,7 @@
         <v>1.875</v>
       </c>
       <c r="F84">
-        <v>1.465</v>
+        <v>1.4650000000000001</v>
       </c>
       <c r="H84">
         <v>2.97</v>
@@ -5165,7 +5182,7 @@
         <v>29</v>
       </c>
       <c r="K84">
-        <v>336.0194175</v>
+        <v>336.01941749999997</v>
       </c>
       <c r="L84">
         <v>493</v>
@@ -5189,7 +5206,7 @@
         <v>320.25</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>18767</v>
       </c>
@@ -5206,7 +5223,7 @@
         <v>1.77</v>
       </c>
       <c r="F85">
-        <v>1.406</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="G85">
         <v>1520.175</v>
@@ -5221,7 +5238,7 @@
         <v>30</v>
       </c>
       <c r="K85">
-        <v>309.3203883</v>
+        <v>309.32038829999999</v>
       </c>
       <c r="L85">
         <v>500</v>
@@ -5245,7 +5262,7 @@
         <v>298.8</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>18771</v>
       </c>
@@ -5262,7 +5279,7 @@
         <v>1.77</v>
       </c>
       <c r="F86">
-        <v>1.406</v>
+        <v>1.4059999999999999</v>
       </c>
       <c r="G86">
         <v>1585.45</v>
@@ -5277,13 +5294,13 @@
         <v>29</v>
       </c>
       <c r="K86">
-        <v>314.1262136</v>
+        <v>314.12621360000003</v>
       </c>
       <c r="L86">
         <v>610</v>
       </c>
       <c r="M86">
-        <v>94.59999999999999</v>
+        <v>94.6</v>
       </c>
       <c r="N86">
         <v>373</v>
@@ -5298,10 +5315,10 @@
         <v>34</v>
       </c>
       <c r="T86">
-        <v>305.455</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20">
+        <v>305.45499999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>18831</v>
       </c>
@@ -5318,13 +5335,13 @@
         <v>1.81</v>
       </c>
       <c r="F87">
-        <v>1.301</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="G87">
         <v>1334.5</v>
       </c>
       <c r="H87">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I87" t="s">
         <v>26</v>
@@ -5333,7 +5350,7 @@
         <v>29</v>
       </c>
       <c r="K87">
-        <v>307.9126214</v>
+        <v>307.91262139999998</v>
       </c>
       <c r="L87">
         <v>310</v>
@@ -5357,7 +5374,7 @@
         <v>294.875</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>18833</v>
       </c>
@@ -5374,13 +5391,13 @@
         <v>1.81</v>
       </c>
       <c r="F88">
-        <v>1.301</v>
+        <v>1.3009999999999999</v>
       </c>
       <c r="G88">
         <v>1429.5</v>
       </c>
       <c r="H88">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I88" t="s">
         <v>26</v>
@@ -5410,10 +5427,10 @@
         <v>35</v>
       </c>
       <c r="T88">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>19028</v>
       </c>
@@ -5430,7 +5447,7 @@
         <v>1.82</v>
       </c>
       <c r="F89">
-        <v>1.685</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="G89">
         <v>1473.85</v>
@@ -5445,13 +5462,13 @@
         <v>29</v>
       </c>
       <c r="K89">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L89">
         <v>200</v>
       </c>
       <c r="M89">
-        <v>82.59999999999999</v>
+        <v>82.6</v>
       </c>
       <c r="N89">
         <v>103</v>
@@ -5466,10 +5483,10 @@
         <v>35</v>
       </c>
       <c r="T89">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>19058</v>
       </c>
@@ -5486,7 +5503,7 @@
         <v>1.82</v>
       </c>
       <c r="F90">
-        <v>1.685</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="G90">
         <v>1593.85</v>
@@ -5501,13 +5518,13 @@
         <v>30</v>
       </c>
       <c r="K90">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L90">
         <v>400</v>
       </c>
       <c r="M90">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="N90">
         <v>125</v>
@@ -5522,10 +5539,10 @@
         <v>35</v>
       </c>
       <c r="T90">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>20409</v>
       </c>
@@ -5578,10 +5595,10 @@
         <v>35</v>
       </c>
       <c r="T91">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>20605</v>
       </c>
@@ -5604,7 +5621,7 @@
         <v>2072.25</v>
       </c>
       <c r="H92">
-        <v>2.881</v>
+        <v>2.8809999999999998</v>
       </c>
       <c r="I92" t="s">
         <v>28</v>
@@ -5613,13 +5630,13 @@
         <v>30</v>
       </c>
       <c r="K92">
-        <v>334.1747573</v>
+        <v>334.17475730000001</v>
       </c>
       <c r="L92">
         <v>500</v>
       </c>
       <c r="M92">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="N92">
         <v>180</v>
@@ -5637,7 +5654,7 @@
         <v>313.18</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>20612</v>
       </c>
@@ -5660,7 +5677,7 @@
         <v>2021.25</v>
       </c>
       <c r="H93">
-        <v>2.881</v>
+        <v>2.8809999999999998</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
@@ -5669,7 +5686,7 @@
         <v>29</v>
       </c>
       <c r="K93">
-        <v>335.0970874</v>
+        <v>335.09708740000002</v>
       </c>
       <c r="L93">
         <v>430</v>
@@ -5690,10 +5707,10 @@
         <v>34</v>
       </c>
       <c r="T93">
-        <v>316.715</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20">
+        <v>316.71499999999997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>20699</v>
       </c>
@@ -5710,13 +5727,13 @@
         <v>1.794</v>
       </c>
       <c r="F94">
-        <v>1.674</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="G94">
         <v>1395.5</v>
       </c>
       <c r="H94">
-        <v>2.678</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="I94" t="s">
         <v>27</v>
@@ -5731,7 +5748,7 @@
         <v>220</v>
       </c>
       <c r="M94">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N94">
         <v>103</v>
@@ -5746,10 +5763,10 @@
         <v>34</v>
       </c>
       <c r="T94">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>20706</v>
       </c>
@@ -5766,13 +5783,13 @@
         <v>1.794</v>
       </c>
       <c r="F95">
-        <v>1.674</v>
+        <v>1.6739999999999999</v>
       </c>
       <c r="G95">
         <v>1403.5</v>
       </c>
       <c r="H95">
-        <v>2.678</v>
+        <v>2.6779999999999999</v>
       </c>
       <c r="I95" t="s">
         <v>27</v>
@@ -5802,10 +5819,10 @@
         <v>35</v>
       </c>
       <c r="T95">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>22376</v>
       </c>
@@ -5819,16 +5836,16 @@
         <v>24</v>
       </c>
       <c r="E96">
-        <v>1.852</v>
+        <v>1.8520000000000001</v>
       </c>
       <c r="F96">
-        <v>1.295</v>
+        <v>1.2949999999999999</v>
       </c>
       <c r="G96">
         <v>1356.8</v>
       </c>
       <c r="H96">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="I96" t="s">
         <v>26</v>
@@ -5858,10 +5875,10 @@
         <v>35</v>
       </c>
       <c r="T96">
-        <v>320.885</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20">
+        <v>320.88499999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>22563</v>
       </c>
@@ -5875,16 +5892,16 @@
         <v>22</v>
       </c>
       <c r="E97">
-        <v>1.809</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="F97">
-        <v>1.703</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="G97">
         <v>1357.8</v>
       </c>
       <c r="H97">
-        <v>2.604</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="I97" t="s">
         <v>27</v>
@@ -5893,13 +5910,13 @@
         <v>29</v>
       </c>
       <c r="K97">
-        <v>335.0970874</v>
+        <v>335.09708740000002</v>
       </c>
       <c r="L97">
         <v>200</v>
       </c>
       <c r="M97">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N97">
         <v>90</v>
@@ -5914,10 +5931,10 @@
         <v>35</v>
       </c>
       <c r="T97">
-        <v>316.715</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20">
+        <v>316.71499999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>22591</v>
       </c>
@@ -5931,16 +5948,16 @@
         <v>22</v>
       </c>
       <c r="E98">
-        <v>1.809</v>
+        <v>1.8089999999999999</v>
       </c>
       <c r="F98">
-        <v>1.703</v>
+        <v>1.7030000000000001</v>
       </c>
       <c r="G98">
         <v>1534.8</v>
       </c>
       <c r="H98">
-        <v>2.604</v>
+        <v>2.6040000000000001</v>
       </c>
       <c r="I98" t="s">
         <v>28</v>
@@ -5949,7 +5966,7 @@
         <v>30</v>
       </c>
       <c r="K98">
-        <v>335.0970874</v>
+        <v>335.09708740000002</v>
       </c>
       <c r="L98">
         <v>350</v>
@@ -5970,10 +5987,10 @@
         <v>35</v>
       </c>
       <c r="T98">
-        <v>316.715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20">
+        <v>316.71499999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>23801</v>
       </c>
@@ -5990,10 +6007,10 @@
         <v>1.782</v>
       </c>
       <c r="F99">
-        <v>1.384</v>
+        <v>1.3839999999999999</v>
       </c>
       <c r="G99">
-        <v>1557.475</v>
+        <v>1557.4749999999999</v>
       </c>
       <c r="H99">
         <v>2.76</v>
@@ -6005,7 +6022,7 @@
         <v>29</v>
       </c>
       <c r="K99">
-        <v>309.3203883</v>
+        <v>309.32038829999999</v>
       </c>
       <c r="L99">
         <v>210</v>
@@ -6029,7 +6046,7 @@
         <v>298.8</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>24268</v>
       </c>
@@ -6043,10 +6060,10 @@
         <v>25</v>
       </c>
       <c r="E100">
-        <v>1.884</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="F100">
-        <v>1.658</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="G100">
         <v>1450.75</v>
@@ -6061,13 +6078,13 @@
         <v>29</v>
       </c>
       <c r="K100">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L100">
         <v>240</v>
       </c>
       <c r="M100">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="N100">
         <v>118</v>
@@ -6082,10 +6099,10 @@
         <v>35</v>
       </c>
       <c r="T100">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>24288</v>
       </c>
@@ -6099,10 +6116,10 @@
         <v>25</v>
       </c>
       <c r="E101">
-        <v>1.884</v>
+        <v>1.8839999999999999</v>
       </c>
       <c r="F101">
-        <v>1.658</v>
+        <v>1.6579999999999999</v>
       </c>
       <c r="G101">
         <v>1542.75</v>
@@ -6117,7 +6134,7 @@
         <v>30</v>
       </c>
       <c r="K101">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L101">
         <v>320</v>
@@ -6138,10 +6155,10 @@
         <v>35</v>
       </c>
       <c r="T101">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>24313</v>
       </c>
@@ -6173,7 +6190,7 @@
         <v>29</v>
       </c>
       <c r="K102">
-        <v>329.4174757</v>
+        <v>329.41747570000001</v>
       </c>
       <c r="L102">
         <v>361</v>
@@ -6197,7 +6214,7 @@
         <v>317.74</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>26539</v>
       </c>
@@ -6211,7 +6228,7 @@
         <v>20</v>
       </c>
       <c r="E103">
-        <v>1.799</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="F103">
         <v>1.452</v>
@@ -6229,13 +6246,13 @@
         <v>29</v>
       </c>
       <c r="K103">
-        <v>307.9126214</v>
+        <v>307.91262139999998</v>
       </c>
       <c r="L103">
         <v>175</v>
       </c>
       <c r="M103">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N103">
         <v>77</v>
@@ -6253,7 +6270,7 @@
         <v>294.875</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>26569</v>
       </c>
@@ -6267,7 +6284,7 @@
         <v>20</v>
       </c>
       <c r="E104">
-        <v>1.799</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="F104">
         <v>1.452</v>
@@ -6285,7 +6302,7 @@
         <v>30</v>
       </c>
       <c r="K104">
-        <v>308.0097087</v>
+        <v>308.00970869999998</v>
       </c>
       <c r="L104">
         <v>250</v>
@@ -6306,10 +6323,10 @@
         <v>34</v>
       </c>
       <c r="T104">
-        <v>289.365</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20">
+        <v>289.36500000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>26629</v>
       </c>
@@ -6326,7 +6343,7 @@
         <v>1.641</v>
       </c>
       <c r="F105">
-        <v>1.489</v>
+        <v>1.4890000000000001</v>
       </c>
       <c r="G105">
         <v>816.375</v>
@@ -6341,13 +6358,13 @@
         <v>29</v>
       </c>
       <c r="K105">
-        <v>283.7378641</v>
+        <v>283.73786410000002</v>
       </c>
       <c r="L105">
         <v>95</v>
       </c>
       <c r="M105">
-        <v>76.40000000000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="N105">
         <v>55</v>
@@ -6362,10 +6379,10 @@
         <v>35</v>
       </c>
       <c r="T105">
-        <v>269.865</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20">
+        <v>269.86500000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>26765</v>
       </c>
@@ -6382,13 +6399,13 @@
         <v>1.802</v>
       </c>
       <c r="F106">
-        <v>1.435</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="G106">
-        <v>1293.15</v>
+        <v>1293.1500000000001</v>
       </c>
       <c r="H106">
-        <v>2.647</v>
+        <v>2.6469999999999998</v>
       </c>
       <c r="I106" t="s">
         <v>27</v>
@@ -6397,13 +6414,13 @@
         <v>29</v>
       </c>
       <c r="K106">
-        <v>309.1262136</v>
+        <v>309.12621360000003</v>
       </c>
       <c r="L106">
         <v>250</v>
       </c>
       <c r="M106">
-        <v>70.90000000000001</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="N106">
         <v>112</v>
@@ -6418,10 +6435,10 @@
         <v>34</v>
       </c>
       <c r="T106">
-        <v>295.85</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20">
+        <v>295.85000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>26799</v>
       </c>
@@ -6435,7 +6452,7 @@
         <v>19</v>
       </c>
       <c r="E107">
-        <v>1.826</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="F107">
         <v>1.427</v>
@@ -6444,7 +6461,7 @@
         <v>1438.825</v>
       </c>
       <c r="H107">
-        <v>2.808</v>
+        <v>2.8079999999999998</v>
       </c>
       <c r="I107" t="s">
         <v>28</v>
@@ -6453,13 +6470,13 @@
         <v>29</v>
       </c>
       <c r="K107">
-        <v>317.4271845</v>
+        <v>317.42718450000001</v>
       </c>
       <c r="L107">
         <v>320</v>
       </c>
       <c r="M107">
-        <v>84.09999999999999</v>
+        <v>84.1</v>
       </c>
       <c r="N107">
         <v>125</v>
@@ -6474,10 +6491,10 @@
         <v>35</v>
       </c>
       <c r="T107">
-        <v>299.725</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20">
+        <v>299.72500000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>26851</v>
       </c>
@@ -6491,16 +6508,16 @@
         <v>19</v>
       </c>
       <c r="E108">
-        <v>1.826</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="F108">
         <v>1.427</v>
       </c>
       <c r="G108">
-        <v>1587.475</v>
+        <v>1587.4749999999999</v>
       </c>
       <c r="H108">
-        <v>2.808</v>
+        <v>2.8079999999999998</v>
       </c>
       <c r="I108" t="s">
         <v>28</v>
@@ -6509,7 +6526,7 @@
         <v>30</v>
       </c>
       <c r="K108">
-        <v>317.0873786</v>
+        <v>317.08737860000002</v>
       </c>
       <c r="L108">
         <v>400</v>
@@ -6530,10 +6547,10 @@
         <v>34</v>
       </c>
       <c r="T108">
-        <v>305.04</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20">
+        <v>305.04000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>27096</v>
       </c>
@@ -6547,16 +6564,16 @@
         <v>24</v>
       </c>
       <c r="E109">
-        <v>1.854</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F109">
-        <v>1.372</v>
+        <v>1.3720000000000001</v>
       </c>
       <c r="G109">
         <v>1561.125</v>
       </c>
       <c r="H109">
-        <v>2.751</v>
+        <v>2.7509999999999999</v>
       </c>
       <c r="I109" t="s">
         <v>28</v>
@@ -6565,7 +6582,7 @@
         <v>30</v>
       </c>
       <c r="K109">
-        <v>317.0873786</v>
+        <v>317.08737860000002</v>
       </c>
       <c r="L109">
         <v>400</v>
@@ -6586,10 +6603,10 @@
         <v>34</v>
       </c>
       <c r="T109">
-        <v>305.04</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20">
+        <v>305.04000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>27189</v>
       </c>
@@ -6603,7 +6620,7 @@
         <v>20</v>
       </c>
       <c r="E110">
-        <v>1.854</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F110">
         <v>1.391</v>
@@ -6621,7 +6638,7 @@
         <v>29</v>
       </c>
       <c r="K110">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L110">
         <v>350</v>
@@ -6642,10 +6659,10 @@
         <v>34</v>
       </c>
       <c r="T110">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>27748</v>
       </c>
@@ -6662,13 +6679,13 @@
         <v>1.643</v>
       </c>
       <c r="F111">
-        <v>1.551</v>
+        <v>1.5509999999999999</v>
       </c>
       <c r="G111">
-        <v>905.025</v>
+        <v>905.02499999999998</v>
       </c>
       <c r="H111">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I111" t="s">
         <v>27</v>
@@ -6677,7 +6694,7 @@
         <v>29</v>
       </c>
       <c r="K111">
-        <v>283.0582524</v>
+        <v>283.05825240000001</v>
       </c>
       <c r="L111">
         <v>88</v>
@@ -6698,10 +6715,10 @@
         <v>35</v>
       </c>
       <c r="T111">
-        <v>266.525</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20">
+        <v>266.52499999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>33958</v>
       </c>
@@ -6715,16 +6732,16 @@
         <v>21</v>
       </c>
       <c r="E112">
-        <v>1.858</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="F112">
-        <v>1.525</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="G112">
         <v>1516.75</v>
       </c>
       <c r="H112">
-        <v>2.737</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="I112" t="s">
         <v>27</v>
@@ -6733,7 +6750,7 @@
         <v>29</v>
       </c>
       <c r="K112">
-        <v>336.0194175</v>
+        <v>336.01941749999997</v>
       </c>
       <c r="L112">
         <v>260</v>
@@ -6757,7 +6774,7 @@
         <v>320.25</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>33986</v>
       </c>
@@ -6771,7 +6788,7 @@
         <v>21</v>
       </c>
       <c r="E113">
-        <v>1.858</v>
+        <v>1.8580000000000001</v>
       </c>
       <c r="F113">
         <v>1.514</v>
@@ -6780,7 +6797,7 @@
         <v>1585.75</v>
       </c>
       <c r="H113">
-        <v>2.737</v>
+        <v>2.7370000000000001</v>
       </c>
       <c r="I113" t="s">
         <v>27</v>
@@ -6789,13 +6806,13 @@
         <v>30</v>
       </c>
       <c r="K113">
-        <v>328.9805825</v>
+        <v>328.98058250000003</v>
       </c>
       <c r="L113">
         <v>400</v>
       </c>
       <c r="M113">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="N113">
         <v>125</v>
@@ -6810,10 +6827,10 @@
         <v>35</v>
       </c>
       <c r="T113">
-        <v>314.595</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20">
+        <v>314.59500000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>34015</v>
       </c>
@@ -6827,7 +6844,7 @@
         <v>22</v>
       </c>
       <c r="E114">
-        <v>1.739</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="F114">
         <v>1.556</v>
@@ -6836,7 +6853,7 @@
         <v>1141.25</v>
       </c>
       <c r="H114">
-        <v>2.538</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="I114" t="s">
         <v>27</v>
@@ -6845,7 +6862,7 @@
         <v>30</v>
       </c>
       <c r="K114">
-        <v>310.8737864</v>
+        <v>310.87378639999997</v>
       </c>
       <c r="L114">
         <v>300</v>
@@ -6866,10 +6883,10 @@
         <v>35</v>
       </c>
       <c r="T114">
-        <v>294.46</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20">
+        <v>294.45999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>34024</v>
       </c>
@@ -6883,7 +6900,7 @@
         <v>22</v>
       </c>
       <c r="E115">
-        <v>1.739</v>
+        <v>1.7390000000000001</v>
       </c>
       <c r="F115">
         <v>1.556</v>
@@ -6892,7 +6909,7 @@
         <v>986.25</v>
       </c>
       <c r="H115">
-        <v>2.538</v>
+        <v>2.5379999999999998</v>
       </c>
       <c r="I115" t="s">
         <v>27</v>
@@ -6901,7 +6918,7 @@
         <v>29</v>
       </c>
       <c r="K115">
-        <v>310.8737864</v>
+        <v>310.87378639999997</v>
       </c>
       <c r="L115">
         <v>118</v>
@@ -6922,10 +6939,10 @@
         <v>35</v>
       </c>
       <c r="T115">
-        <v>294.46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20">
+        <v>294.45999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>34057</v>
       </c>
@@ -6957,7 +6974,7 @@
         <v>30</v>
       </c>
       <c r="K116">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L116">
         <v>270</v>
@@ -6978,10 +6995,10 @@
         <v>34</v>
       </c>
       <c r="T116">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>34058</v>
       </c>
@@ -7013,7 +7030,7 @@
         <v>29</v>
       </c>
       <c r="K117">
-        <v>318.8349515</v>
+        <v>318.83495149999999</v>
       </c>
       <c r="L117">
         <v>240</v>
@@ -7034,10 +7051,10 @@
         <v>35</v>
       </c>
       <c r="T117">
-        <v>303.65</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20">
+        <v>303.64999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>34092</v>
       </c>
@@ -7054,10 +7071,10 @@
         <v>1.804</v>
       </c>
       <c r="F118">
-        <v>1.457</v>
+        <v>1.4570000000000001</v>
       </c>
       <c r="G118">
-        <v>1259.225</v>
+        <v>1259.2249999999999</v>
       </c>
       <c r="H118">
         <v>2.62</v>
@@ -7069,7 +7086,7 @@
         <v>30</v>
       </c>
       <c r="K118">
-        <v>309.3203883</v>
+        <v>309.32038829999999</v>
       </c>
       <c r="L118">
         <v>400</v>
@@ -7093,7 +7110,7 @@
         <v>298.8</v>
       </c>
     </row>
-    <row r="119" spans="1:20">
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>34183</v>
       </c>
@@ -7110,7 +7127,7 @@
         <v>1.931</v>
       </c>
       <c r="F119">
-        <v>1.418</v>
+        <v>1.4179999999999999</v>
       </c>
       <c r="G119">
         <v>1752.5</v>
@@ -7125,7 +7142,7 @@
         <v>29</v>
       </c>
       <c r="K119">
-        <v>340.8737864</v>
+        <v>340.87378639999997</v>
       </c>
       <c r="L119">
         <v>400</v>
@@ -7146,10 +7163,10 @@
         <v>34</v>
       </c>
       <c r="T119">
-        <v>324.15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20">
+        <v>324.14999999999998</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>34186</v>
       </c>
@@ -7166,7 +7183,7 @@
         <v>1.931</v>
       </c>
       <c r="F120">
-        <v>1.418</v>
+        <v>1.4179999999999999</v>
       </c>
       <c r="G120">
         <v>1846</v>
@@ -7181,13 +7198,13 @@
         <v>30</v>
       </c>
       <c r="K120">
-        <v>340.8737864</v>
+        <v>340.87378639999997</v>
       </c>
       <c r="L120">
         <v>650</v>
       </c>
       <c r="M120">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="N120">
         <v>221</v>
@@ -7202,10 +7219,10 @@
         <v>34</v>
       </c>
       <c r="T120">
-        <v>324.15</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20">
+        <v>324.14999999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>34196</v>
       </c>
@@ -7222,13 +7239,13 @@
         <v>1.778</v>
       </c>
       <c r="F121">
-        <v>1.566</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="G121">
         <v>1114.625</v>
       </c>
       <c r="H121">
-        <v>2.606</v>
+        <v>2.6059999999999999</v>
       </c>
       <c r="I121" t="s">
         <v>27</v>
@@ -7237,7 +7254,7 @@
         <v>30</v>
       </c>
       <c r="K121">
-        <v>319.0776698999999</v>
+        <v>319.07766989999988</v>
       </c>
       <c r="L121">
         <v>220</v>
@@ -7258,10 +7275,10 @@
         <v>35</v>
       </c>
       <c r="T121">
-        <v>303.845</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20">
+        <v>303.84500000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>34202</v>
       </c>
@@ -7278,13 +7295,13 @@
         <v>1.778</v>
       </c>
       <c r="F122">
-        <v>1.566</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="G122">
         <v>1124.625</v>
       </c>
       <c r="H122">
-        <v>2.606</v>
+        <v>2.6059999999999999</v>
       </c>
       <c r="I122" t="s">
         <v>27</v>
@@ -7293,13 +7310,13 @@
         <v>29</v>
       </c>
       <c r="K122">
-        <v>319.0776698999999</v>
+        <v>319.07766989999988</v>
       </c>
       <c r="L122">
         <v>190</v>
       </c>
       <c r="M122">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="N122">
         <v>88</v>
@@ -7314,10 +7331,10 @@
         <v>34</v>
       </c>
       <c r="T122">
-        <v>303.845</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20">
+        <v>303.84500000000003</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>34265</v>
       </c>
@@ -7331,10 +7348,10 @@
         <v>20</v>
       </c>
       <c r="E123">
-        <v>1.808</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="F123">
-        <v>1.471</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="G123">
         <v>1224.5</v>
@@ -7370,10 +7387,10 @@
         <v>34</v>
       </c>
       <c r="T123">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>34271</v>
       </c>
@@ -7387,10 +7404,10 @@
         <v>20</v>
       </c>
       <c r="E124">
-        <v>1.808</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="F124">
-        <v>1.471</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="G124">
         <v>1139.5</v>
@@ -7405,7 +7422,7 @@
         <v>29</v>
       </c>
       <c r="K124">
-        <v>316.6990291</v>
+        <v>316.69902910000002</v>
       </c>
       <c r="L124">
         <v>190</v>
@@ -7429,7 +7446,7 @@
         <v>299.14</v>
       </c>
     </row>
-    <row r="125" spans="1:20">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>34279</v>
       </c>
@@ -7461,7 +7478,7 @@
         <v>30</v>
       </c>
       <c r="K125">
-        <v>316.6990291</v>
+        <v>316.69902910000002</v>
       </c>
       <c r="L125">
         <v>260</v>
@@ -7485,7 +7502,7 @@
         <v>299.14</v>
       </c>
     </row>
-    <row r="126" spans="1:20">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>34286</v>
       </c>
@@ -7517,13 +7534,13 @@
         <v>29</v>
       </c>
       <c r="K126">
-        <v>319.0776698999999</v>
+        <v>319.07766989999988</v>
       </c>
       <c r="L126">
         <v>190</v>
       </c>
       <c r="M126">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="N126">
         <v>85</v>
@@ -7538,10 +7555,10 @@
         <v>35</v>
       </c>
       <c r="T126">
-        <v>303.845</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20">
+        <v>303.84500000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>34474</v>
       </c>
@@ -7555,10 +7572,10 @@
         <v>21</v>
       </c>
       <c r="E127">
-        <v>1.816</v>
+        <v>1.8160000000000001</v>
       </c>
       <c r="F127">
-        <v>1.481</v>
+        <v>1.4810000000000001</v>
       </c>
       <c r="G127">
         <v>1334.875</v>
@@ -7573,7 +7590,7 @@
         <v>30</v>
       </c>
       <c r="K127">
-        <v>319.0776698999999</v>
+        <v>319.07766989999988</v>
       </c>
       <c r="L127">
         <v>250</v>
@@ -7594,10 +7611,10 @@
         <v>34</v>
       </c>
       <c r="T127">
-        <v>303.845</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20">
+        <v>303.84500000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>34499</v>
       </c>
@@ -7611,7 +7628,7 @@
         <v>21</v>
       </c>
       <c r="E128">
-        <v>1.816</v>
+        <v>1.8160000000000001</v>
       </c>
       <c r="F128">
         <v>1.444</v>
@@ -7620,7 +7637,7 @@
         <v>1306.25</v>
       </c>
       <c r="H128">
-        <v>2.634</v>
+        <v>2.6339999999999999</v>
       </c>
       <c r="I128" t="s">
         <v>27</v>
@@ -7629,7 +7646,7 @@
         <v>29</v>
       </c>
       <c r="K128">
-        <v>314.1262136</v>
+        <v>314.12621360000003</v>
       </c>
       <c r="L128">
         <v>350</v>
@@ -7650,10 +7667,10 @@
         <v>35</v>
       </c>
       <c r="T128">
-        <v>305.455</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20">
+        <v>305.45499999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>34565</v>
       </c>
@@ -7667,16 +7684,16 @@
         <v>20</v>
       </c>
       <c r="E129">
-        <v>1.814</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="F129">
-        <v>1.461</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="G129">
         <v>1216.25</v>
       </c>
       <c r="H129">
-        <v>2.686</v>
+        <v>2.6859999999999999</v>
       </c>
       <c r="I129" t="s">
         <v>27</v>
@@ -7685,7 +7702,7 @@
         <v>30</v>
       </c>
       <c r="K129">
-        <v>309.3203883</v>
+        <v>309.32038829999999</v>
       </c>
       <c r="L129">
         <v>320</v>
@@ -7709,7 +7726,7 @@
         <v>298.8</v>
       </c>
     </row>
-    <row r="130" spans="1:20">
+    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>34603</v>
       </c>
@@ -7723,10 +7740,10 @@
         <v>21</v>
       </c>
       <c r="E130">
-        <v>1.814</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="F130">
-        <v>1.461</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="G130">
         <v>1218.25</v>
@@ -7741,7 +7758,7 @@
         <v>29</v>
       </c>
       <c r="K130">
-        <v>309.3203883</v>
+        <v>309.32038829999999</v>
       </c>
       <c r="L130">
         <v>250</v>
@@ -7765,7 +7782,7 @@
         <v>298.8</v>
       </c>
     </row>
-    <row r="131" spans="1:20">
+    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>34760</v>
       </c>
@@ -7779,7 +7796,7 @@
         <v>21</v>
       </c>
       <c r="E131">
-        <v>1.817</v>
+        <v>1.8169999999999999</v>
       </c>
       <c r="F131">
         <v>1.51</v>
@@ -7788,7 +7805,7 @@
         <v>1348.5</v>
       </c>
       <c r="H131">
-        <v>2.761</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="I131" t="s">
         <v>27</v>
@@ -7803,7 +7820,7 @@
         <v>200</v>
       </c>
       <c r="M131">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N131">
         <v>92</v>
@@ -7818,10 +7835,10 @@
         <v>35</v>
       </c>
       <c r="T131">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>34766</v>
       </c>
@@ -7835,7 +7852,7 @@
         <v>21</v>
       </c>
       <c r="E132">
-        <v>1.817</v>
+        <v>1.8169999999999999</v>
       </c>
       <c r="F132">
         <v>1.51</v>
@@ -7844,7 +7861,7 @@
         <v>1400.5</v>
       </c>
       <c r="H132">
-        <v>2.761</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="I132" t="s">
         <v>27</v>
@@ -7874,10 +7891,10 @@
         <v>35</v>
       </c>
       <c r="T132">
-        <v>291.145</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20">
+        <v>291.14499999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>35135</v>
       </c>
@@ -7900,7 +7917,7 @@
         <v>891.375</v>
       </c>
       <c r="H133">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I133" t="s">
         <v>27</v>
@@ -7909,7 +7926,7 @@
         <v>29</v>
       </c>
       <c r="K133">
-        <v>283.7378641</v>
+        <v>283.73786410000002</v>
       </c>
       <c r="L133">
         <v>145</v>
@@ -7930,10 +7947,10 @@
         <v>34</v>
       </c>
       <c r="T133">
-        <v>269.865</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20">
+        <v>269.86500000000001</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>35361</v>
       </c>
@@ -7947,16 +7964,16 @@
         <v>20</v>
       </c>
       <c r="E134">
-        <v>1.683</v>
+        <v>1.6830000000000001</v>
       </c>
       <c r="F134">
-        <v>1.463</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="G134">
         <v>1022.975</v>
       </c>
       <c r="H134">
-        <v>2.486</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="I134" t="s">
         <v>27</v>
@@ -7965,7 +7982,7 @@
         <v>30</v>
       </c>
       <c r="K134">
-        <v>283.0582524</v>
+        <v>283.05825240000001</v>
       </c>
       <c r="L134">
         <v>160</v>
@@ -7986,10 +8003,10 @@
         <v>34</v>
       </c>
       <c r="T134">
-        <v>266.525</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20">
+        <v>266.52499999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>35452</v>
       </c>
@@ -8003,16 +8020,16 @@
         <v>20</v>
       </c>
       <c r="E135">
-        <v>1.707</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="F135">
-        <v>1.493</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="G135">
         <v>1137.875</v>
       </c>
       <c r="H135">
-        <v>2.575</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="I135" t="s">
         <v>27</v>
@@ -8021,7 +8038,7 @@
         <v>30</v>
       </c>
       <c r="K135">
-        <v>292.7184466</v>
+        <v>292.71844659999999</v>
       </c>
       <c r="L135">
         <v>200</v>
@@ -8045,7 +8062,7 @@
         <v>277.08</v>
       </c>
     </row>
-    <row r="136" spans="1:20">
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>35476</v>
       </c>
@@ -8059,16 +8076,16 @@
         <v>19</v>
       </c>
       <c r="E136">
-        <v>1.832</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="F136">
-        <v>1.461</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="G136">
         <v>1222.45</v>
       </c>
       <c r="H136">
-        <v>2.791</v>
+        <v>2.7909999999999999</v>
       </c>
       <c r="I136" t="s">
         <v>27</v>
@@ -8077,7 +8094,7 @@
         <v>29</v>
       </c>
       <c r="K136">
-        <v>322.5242718</v>
+        <v>322.52427180000001</v>
       </c>
       <c r="L136">
         <v>200</v>
@@ -8101,7 +8118,7 @@
         <v>303.82</v>
       </c>
     </row>
-    <row r="137" spans="1:20">
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>36101</v>
       </c>
@@ -8118,7 +8135,7 @@
         <v>1.752</v>
       </c>
       <c r="F137">
-        <v>1.433</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="G137">
         <v>1256.125</v>
@@ -8133,7 +8150,7 @@
         <v>29</v>
       </c>
       <c r="K137">
-        <v>289.368932</v>
+        <v>289.36893199999997</v>
       </c>
       <c r="L137">
         <v>181</v>
@@ -8154,10 +8171,10 @@
         <v>34</v>
       </c>
       <c r="T137">
-        <v>271.595</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20">
+        <v>271.59500000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>36525</v>
       </c>
@@ -8180,7 +8197,7 @@
         <v>1316.4</v>
       </c>
       <c r="H138">
-        <v>2.817</v>
+        <v>2.8170000000000002</v>
       </c>
       <c r="I138" t="s">
         <v>27</v>
@@ -8189,7 +8206,7 @@
         <v>29</v>
       </c>
       <c r="K138">
-        <v>322.5242718</v>
+        <v>322.52427180000001</v>
       </c>
       <c r="L138">
         <v>156</v>
@@ -8213,7 +8230,7 @@
         <v>303.82</v>
       </c>
     </row>
-    <row r="139" spans="1:20">
+    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>36591</v>
       </c>
@@ -8230,7 +8247,7 @@
         <v>1.76</v>
       </c>
       <c r="F139">
-        <v>1.525</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="G139">
         <v>1299.5</v>
@@ -8245,7 +8262,7 @@
         <v>29</v>
       </c>
       <c r="K139">
-        <v>313.9805825</v>
+        <v>313.98058250000003</v>
       </c>
       <c r="L139">
         <v>196</v>
@@ -8269,7 +8286,7 @@
         <v>299.75</v>
       </c>
     </row>
-    <row r="140" spans="1:20">
+    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>39393</v>
       </c>
@@ -8292,7 +8309,7 @@
         <v>931.375</v>
       </c>
       <c r="H140">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I140" t="s">
         <v>27</v>
@@ -8301,7 +8318,7 @@
         <v>30</v>
       </c>
       <c r="K140">
-        <v>283.7378641</v>
+        <v>283.73786410000002</v>
       </c>
       <c r="L140">
         <v>200</v>
@@ -8322,10 +8339,10 @@
         <v>35</v>
       </c>
       <c r="T140">
-        <v>269.865</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20">
+        <v>269.86500000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>39396</v>
       </c>
@@ -8363,7 +8380,7 @@
         <v>400</v>
       </c>
       <c r="M141">
-        <v>89.59999999999999</v>
+        <v>89.6</v>
       </c>
       <c r="N141">
         <v>225</v>
@@ -8378,10 +8395,10 @@
         <v>34</v>
       </c>
       <c r="T141">
-        <v>312.425</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20">
+        <v>312.42500000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>39723</v>
       </c>
@@ -8398,10 +8415,10 @@
         <v>1.804</v>
       </c>
       <c r="F142">
-        <v>1.471</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="G142">
-        <v>1129.225</v>
+        <v>1129.2249999999999</v>
       </c>
       <c r="H142">
         <v>2.73</v>
@@ -8413,7 +8430,7 @@
         <v>29</v>
       </c>
       <c r="K142">
-        <v>307.9126214</v>
+        <v>307.91262139999998</v>
       </c>
       <c r="L142">
         <v>230</v>
@@ -8437,7 +8454,7 @@
         <v>294.875</v>
       </c>
     </row>
-    <row r="143" spans="1:20">
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>39820</v>
       </c>
@@ -8451,7 +8468,7 @@
         <v>19</v>
       </c>
       <c r="E143">
-        <v>1.949</v>
+        <v>1.9490000000000001</v>
       </c>
       <c r="F143">
         <v>1.46</v>
@@ -8460,7 +8477,7 @@
         <v>1854.65</v>
       </c>
       <c r="H143">
-        <v>3.122</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="I143" t="s">
         <v>28</v>
@@ -8469,13 +8486,13 @@
         <v>30</v>
       </c>
       <c r="K143">
-        <v>347.4271845</v>
+        <v>347.42718450000001</v>
       </c>
       <c r="L143">
         <v>580</v>
       </c>
       <c r="M143">
-        <v>91.40000000000001</v>
+        <v>91.4</v>
       </c>
       <c r="N143">
         <v>190</v>
@@ -8490,10 +8507,10 @@
         <v>34</v>
       </c>
       <c r="T143">
-        <v>329.415</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20">
+        <v>329.41500000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>40130</v>
       </c>
@@ -8507,7 +8524,7 @@
         <v>21</v>
       </c>
       <c r="E144">
-        <v>1.854</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F144">
         <v>1.512</v>
@@ -8516,7 +8533,7 @@
         <v>1595.175</v>
       </c>
       <c r="H144">
-        <v>2.874</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="I144" t="s">
         <v>26</v>
@@ -8525,7 +8542,7 @@
         <v>29</v>
       </c>
       <c r="K144">
-        <v>316.6504854</v>
+        <v>316.65048539999998</v>
       </c>
       <c r="L144">
         <v>270</v>
@@ -8546,10 +8563,10 @@
         <v>35</v>
       </c>
       <c r="T144">
-        <v>301.895</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20">
+        <v>301.89499999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>40170</v>
       </c>
@@ -8572,7 +8589,7 @@
         <v>1212.875</v>
       </c>
       <c r="H145">
-        <v>2.646</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="I145" t="s">
         <v>27</v>
@@ -8581,13 +8598,13 @@
         <v>29</v>
       </c>
       <c r="K145">
-        <v>332.5728155</v>
+        <v>332.57281549999999</v>
       </c>
       <c r="L145">
         <v>190</v>
       </c>
       <c r="M145">
-        <v>73.09999999999999</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="N145">
         <v>85</v>
@@ -8602,10 +8619,10 @@
         <v>35</v>
       </c>
       <c r="T145">
-        <v>320.275</v>
-      </c>
-    </row>
-    <row r="146" spans="1:20">
+        <v>320.27499999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>40225</v>
       </c>
@@ -8619,16 +8636,16 @@
         <v>20</v>
       </c>
       <c r="E146">
-        <v>1.682</v>
+        <v>1.6819999999999999</v>
       </c>
       <c r="F146">
-        <v>1.453</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="G146">
         <v>1059.625</v>
       </c>
       <c r="H146">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I146" t="s">
         <v>27</v>
@@ -8637,7 +8654,7 @@
         <v>30</v>
       </c>
       <c r="K146">
-        <v>292.7184466</v>
+        <v>292.71844659999999</v>
       </c>
       <c r="L146">
         <v>210</v>
@@ -8661,7 +8678,7 @@
         <v>277.08</v>
       </c>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>40516</v>
       </c>
@@ -8675,16 +8692,16 @@
         <v>20</v>
       </c>
       <c r="E147">
-        <v>1.707</v>
+        <v>1.7070000000000001</v>
       </c>
       <c r="F147">
-        <v>1.493</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="G147">
         <v>1027.875</v>
       </c>
       <c r="H147">
-        <v>2.575</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="I147" t="s">
         <v>27</v>
@@ -8693,7 +8710,7 @@
         <v>29</v>
       </c>
       <c r="K147">
-        <v>291.9417476</v>
+        <v>291.94174759999999</v>
       </c>
       <c r="L147">
         <v>145</v>
@@ -8717,7 +8734,7 @@
         <v>279.25</v>
       </c>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>40595</v>
       </c>
@@ -8770,10 +8787,10 @@
         <v>35</v>
       </c>
       <c r="T148">
-        <v>312.425</v>
-      </c>
-    </row>
-    <row r="149" spans="1:20">
+        <v>312.42500000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>41045</v>
       </c>
@@ -8787,16 +8804,16 @@
         <v>19</v>
       </c>
       <c r="E149">
-        <v>1.949</v>
+        <v>1.9490000000000001</v>
       </c>
       <c r="F149">
-        <v>1.471</v>
+        <v>1.4710000000000001</v>
       </c>
       <c r="G149">
         <v>1994.65</v>
       </c>
       <c r="H149">
-        <v>3.122</v>
+        <v>3.1219999999999999</v>
       </c>
       <c r="I149" t="s">
         <v>28</v>
@@ -8805,13 +8822,13 @@
         <v>29</v>
       </c>
       <c r="K149">
-        <v>345.6796117</v>
+        <v>345.67961170000001</v>
       </c>
       <c r="L149">
         <v>625</v>
       </c>
       <c r="M149">
-        <v>90.40000000000001</v>
+        <v>90.4</v>
       </c>
       <c r="N149">
         <v>368</v>
@@ -8826,10 +8843,10 @@
         <v>34</v>
       </c>
       <c r="T149">
-        <v>330.805</v>
-      </c>
-    </row>
-    <row r="150" spans="1:20">
+        <v>330.80500000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>41388</v>
       </c>
@@ -8843,16 +8860,16 @@
         <v>20</v>
       </c>
       <c r="E150">
-        <v>1.683</v>
+        <v>1.6830000000000001</v>
       </c>
       <c r="F150">
-        <v>1.463</v>
+        <v>1.4630000000000001</v>
       </c>
       <c r="G150">
         <v>980.625</v>
       </c>
       <c r="H150">
-        <v>2.486</v>
+        <v>2.4860000000000002</v>
       </c>
       <c r="I150" t="s">
         <v>27</v>
@@ -8861,13 +8878,13 @@
         <v>29</v>
       </c>
       <c r="K150">
-        <v>289.0776698999999</v>
+        <v>289.07766989999988</v>
       </c>
       <c r="L150">
         <v>146</v>
       </c>
       <c r="M150">
-        <v>81.40000000000001</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="N150">
         <v>74</v>
@@ -8882,10 +8899,10 @@
         <v>35</v>
       </c>
       <c r="T150">
-        <v>274.155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:20">
+        <v>274.15499999999997</v>
+      </c>
+    </row>
+    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>41989</v>
       </c>
@@ -8899,16 +8916,16 @@
         <v>19</v>
       </c>
       <c r="E151">
-        <v>1.832</v>
+        <v>1.8320000000000001</v>
       </c>
       <c r="F151">
-        <v>1.461</v>
+        <v>1.4610000000000001</v>
       </c>
       <c r="G151">
         <v>1299.45</v>
       </c>
       <c r="H151">
-        <v>2.791</v>
+        <v>2.7909999999999999</v>
       </c>
       <c r="I151" t="s">
         <v>27</v>
@@ -8917,7 +8934,7 @@
         <v>30</v>
       </c>
       <c r="K151">
-        <v>322.5242718</v>
+        <v>322.52427180000001</v>
       </c>
       <c r="L151">
         <v>250</v>
@@ -8941,7 +8958,7 @@
         <v>303.82</v>
       </c>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>42363</v>
       </c>
@@ -8955,7 +8972,7 @@
         <v>21</v>
       </c>
       <c r="E152">
-        <v>1.854</v>
+        <v>1.8540000000000001</v>
       </c>
       <c r="F152">
         <v>1.512</v>
@@ -8964,7 +8981,7 @@
         <v>1815.175</v>
       </c>
       <c r="H152">
-        <v>2.874</v>
+        <v>2.8740000000000001</v>
       </c>
       <c r="I152" t="s">
         <v>26</v>
@@ -8973,7 +8990,7 @@
         <v>30</v>
       </c>
       <c r="K152">
-        <v>316.6504854</v>
+        <v>316.65048539999998</v>
       </c>
       <c r="L152">
         <v>500</v>
@@ -8994,10 +9011,10 @@
         <v>34</v>
       </c>
       <c r="T152">
-        <v>301.895</v>
-      </c>
-    </row>
-    <row r="153" spans="1:20">
+        <v>301.89499999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>42886</v>
       </c>
@@ -9014,7 +9031,7 @@
         <v>1.752</v>
       </c>
       <c r="F153">
-        <v>1.433</v>
+        <v>1.4330000000000001</v>
       </c>
       <c r="G153">
         <v>1282.125</v>
@@ -9029,7 +9046,7 @@
         <v>30</v>
       </c>
       <c r="K153">
-        <v>298.5436893</v>
+        <v>298.54368929999998</v>
       </c>
       <c r="L153">
         <v>245</v>
@@ -9053,7 +9070,7 @@
         <v>281.76</v>
       </c>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43058</v>
       </c>
@@ -9085,13 +9102,13 @@
         <v>29</v>
       </c>
       <c r="K154">
-        <v>345.631068</v>
+        <v>345.63106800000003</v>
       </c>
       <c r="L154">
         <v>632</v>
       </c>
       <c r="M154">
-        <v>88.40000000000001</v>
+        <v>88.4</v>
       </c>
       <c r="N154">
         <v>404</v>
@@ -9109,7 +9126,7 @@
         <v>333.56</v>
       </c>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>44387</v>
       </c>
@@ -9123,16 +9140,16 @@
         <v>20</v>
       </c>
       <c r="E155">
-        <v>1.682</v>
+        <v>1.6819999999999999</v>
       </c>
       <c r="F155">
-        <v>1.453</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="G155">
         <v>976.625</v>
       </c>
       <c r="H155">
-        <v>2.47</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I155" t="s">
         <v>27</v>
@@ -9141,13 +9158,13 @@
         <v>29</v>
       </c>
       <c r="K155">
-        <v>291.2135922</v>
+        <v>291.21359219999999</v>
       </c>
       <c r="L155">
         <v>160</v>
       </c>
       <c r="M155">
-        <v>75.59999999999999</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="N155">
         <v>66</v>
@@ -9162,10 +9179,10 @@
         <v>34</v>
       </c>
       <c r="T155">
-        <v>278.665</v>
-      </c>
-    </row>
-    <row r="156" spans="1:20">
+        <v>278.66500000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>44599</v>
       </c>
@@ -9188,7 +9205,7 @@
         <v>1302.875</v>
       </c>
       <c r="H156">
-        <v>2.646</v>
+        <v>2.6459999999999999</v>
       </c>
       <c r="I156" t="s">
         <v>27</v>
@@ -9197,7 +9214,7 @@
         <v>30</v>
       </c>
       <c r="K156">
-        <v>332.5728155</v>
+        <v>332.57281549999999</v>
       </c>
       <c r="L156">
         <v>320</v>
@@ -9218,10 +9235,10 @@
         <v>35</v>
       </c>
       <c r="T156">
-        <v>320.275</v>
-      </c>
-    </row>
-    <row r="157" spans="1:20">
+        <v>320.27499999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>44799</v>
       </c>
@@ -9238,13 +9255,13 @@
         <v>1.871</v>
       </c>
       <c r="F157">
-        <v>1.485</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="G157">
-        <v>1813.975</v>
+        <v>1813.9749999999999</v>
       </c>
       <c r="H157">
-        <v>3.035</v>
+        <v>3.0350000000000001</v>
       </c>
       <c r="I157" t="s">
         <v>26</v>
@@ -9253,7 +9270,7 @@
         <v>30</v>
       </c>
       <c r="K157">
-        <v>335.0970874</v>
+        <v>335.09708740000002</v>
       </c>
       <c r="L157">
         <v>500</v>
@@ -9274,10 +9291,10 @@
         <v>34</v>
       </c>
       <c r="T157">
-        <v>316.715</v>
-      </c>
-    </row>
-    <row r="158" spans="1:20">
+        <v>316.71499999999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>44856</v>
       </c>
@@ -9291,16 +9308,16 @@
         <v>24</v>
       </c>
       <c r="E158">
-        <v>1.947</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="F158">
-        <v>1.507</v>
+        <v>1.5069999999999999</v>
       </c>
       <c r="G158">
-        <v>2278.975</v>
+        <v>2278.9749999999999</v>
       </c>
       <c r="H158">
-        <v>3.112</v>
+        <v>3.1120000000000001</v>
       </c>
       <c r="I158" t="s">
         <v>26</v>
@@ -9309,7 +9326,7 @@
         <v>29</v>
       </c>
       <c r="K158">
-        <v>358.0097087</v>
+        <v>358.00970869999998</v>
       </c>
       <c r="L158">
         <v>800</v>
@@ -9333,7 +9350,7 @@
         <v>343.505</v>
       </c>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>46547</v>
       </c>
@@ -9350,7 +9367,7 @@
         <v>1.871</v>
       </c>
       <c r="F159">
-        <v>1.485</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="G159">
         <v>2049.25</v>
@@ -9365,7 +9382,7 @@
         <v>29</v>
       </c>
       <c r="K159">
-        <v>333.3495146</v>
+        <v>333.34951460000002</v>
       </c>
       <c r="L159">
         <v>830</v>
@@ -9386,10 +9403,10 @@
         <v>34</v>
       </c>
       <c r="T159">
-        <v>318.105</v>
-      </c>
-    </row>
-    <row r="160" spans="1:20">
+        <v>318.10500000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>47766</v>
       </c>
@@ -9412,7 +9429,7 @@
         <v>1356.4</v>
       </c>
       <c r="H160">
-        <v>2.817</v>
+        <v>2.8170000000000002</v>
       </c>
       <c r="I160" t="s">
         <v>27</v>
@@ -9421,7 +9438,7 @@
         <v>30</v>
       </c>
       <c r="K160">
-        <v>322.5242718</v>
+        <v>322.52427180000001</v>
       </c>
       <c r="L160">
         <v>300</v>
@@ -9445,7 +9462,7 @@
         <v>303.82</v>
       </c>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>47844</v>
       </c>
@@ -9468,7 +9485,7 @@
         <v>1644</v>
       </c>
       <c r="H161">
-        <v>2.648</v>
+        <v>2.6480000000000001</v>
       </c>
       <c r="I161" t="s">
         <v>27</v>
@@ -9489,7 +9506,7 @@
         <v>250</v>
       </c>
       <c r="T161">
-        <v>323.4</v>
+        <v>323.39999999999998</v>
       </c>
     </row>
   </sheetData>
